--- a/experiment_Sliced.xlsx
+++ b/experiment_Sliced.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20374"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BD8D69-77A8-418F-B4A1-87F6182D6875}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="915" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2130" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" r:id="rId1"/>
-    <sheet name="control" sheetId="2" r:id="rId2"/>
-    <sheet name="experiment" sheetId="3" r:id="rId3"/>
+    <sheet name="Tpred_K" sheetId="4" r:id="rId1"/>
+    <sheet name="experiment" sheetId="3" r:id="rId2"/>
+    <sheet name="control" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,16 +22,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>con</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>N2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tpred_K</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>w4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tpred_m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -348,7 +377,63 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6AC130C-94BE-4DD6-A4F4-E5B5E7C56327}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>26</v>
+      </c>
+      <c r="D2">
+        <v>45</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -360,8 +445,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -378,17 +463,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>